--- a/Complete-spreadsheets/TASK/C4-list-TA.xlsx
+++ b/Complete-spreadsheets/TASK/C4-list-TA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IIT\Year 2 Sem 2\SDGP\ML-github-component\Intellignosis\Complete-spreadsheets\TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEE301E-1C6C-4162-836F-8CA3F90CA1FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C236195B-F3EA-4C59-8792-C20710FA73BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -455,7 +455,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+      <selection activeCell="A24" sqref="A24:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,23 +499,23 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="3">
-        <v>55.489790777488643</v>
-      </c>
-      <c r="C2" s="3">
-        <v>16.728498690068129</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5.0641805843767624</v>
-      </c>
-      <c r="E2" s="3">
-        <v>3.8816091376464361</v>
-      </c>
-      <c r="F2" s="3">
-        <v>1.8180694170614959</v>
+      <c r="B2" s="4">
+        <v>1430.3602877260801</v>
+      </c>
+      <c r="C2" s="4">
+        <v>91.86022491947557</v>
+      </c>
+      <c r="D2" s="4">
+        <v>10.62158358504429</v>
+      </c>
+      <c r="E2" s="4">
+        <v>4.1474675517587283</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2.1773851104798569</v>
       </c>
       <c r="G2">
-        <v>82.982148606641474</v>
+        <v>1539.166948892838</v>
       </c>
       <c r="H2">
         <v>0.25</v>
@@ -524,10 +524,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>26</v>
-      </c>
-      <c r="K2" s="3">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
         <v>13</v>
@@ -537,23 +537,23 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3">
-        <v>16.50146848544783</v>
-      </c>
-      <c r="C3" s="3">
-        <v>13.1768188898217</v>
-      </c>
-      <c r="D3" s="3">
-        <v>2.604673760370126</v>
-      </c>
-      <c r="E3" s="3">
-        <v>2.557495449760204</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2.0794635607783492</v>
+      <c r="B3" s="4">
+        <v>10.560220400950501</v>
+      </c>
+      <c r="C3" s="4">
+        <v>34.163598838687278</v>
+      </c>
+      <c r="D3" s="4">
+        <v>4.3454725743379914</v>
+      </c>
+      <c r="E3" s="4">
+        <v>2.520813344389278</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2.3642046794628131</v>
       </c>
       <c r="G3">
-        <v>36.919920146178207</v>
+        <v>53.954309837827857</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -562,10 +562,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>28</v>
-      </c>
-      <c r="K3" s="3">
-        <v>1</v>
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
@@ -576,22 +576,22 @@
         <v>9</v>
       </c>
       <c r="B4" s="4">
-        <v>1430.3602877260801</v>
+        <v>34.944927174596181</v>
       </c>
       <c r="C4" s="4">
-        <v>91.86022491947557</v>
+        <v>10.1786298375561</v>
       </c>
       <c r="D4" s="4">
-        <v>10.62158358504429</v>
+        <v>4.2070670582499368</v>
       </c>
       <c r="E4" s="4">
-        <v>4.1474675517587283</v>
+        <v>4.0029131533094624</v>
       </c>
       <c r="F4" s="4">
-        <v>2.1773851104798569</v>
+        <v>2.7321521240141289</v>
       </c>
       <c r="G4">
-        <v>1539.166948892838</v>
+        <v>56.065689347725808</v>
       </c>
       <c r="H4">
         <v>0.25</v>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K4" s="4">
         <v>0</v>
@@ -614,22 +614,22 @@
         <v>9</v>
       </c>
       <c r="B5" s="4">
-        <v>10.560220400950501</v>
+        <v>13.38231794958206</v>
       </c>
       <c r="C5" s="4">
-        <v>34.163598838687278</v>
+        <v>16.64554476062294</v>
       </c>
       <c r="D5" s="4">
-        <v>4.3454725743379914</v>
+        <v>2.7370109295171261</v>
       </c>
       <c r="E5" s="4">
-        <v>2.520813344389278</v>
+        <v>2.8073593293665269</v>
       </c>
       <c r="F5" s="4">
-        <v>2.3642046794628131</v>
+        <v>3.571682417735345</v>
       </c>
       <c r="G5">
-        <v>53.954309837827857</v>
+        <v>39.143915386824013</v>
       </c>
       <c r="H5">
         <v>0.25</v>
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K5" s="4">
         <v>0</v>
@@ -651,23 +651,23 @@
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3">
-        <v>40.334039030001158</v>
-      </c>
-      <c r="C6" s="3">
-        <v>8.040774778641282</v>
-      </c>
-      <c r="D6" s="3">
-        <v>4.2879601201929072</v>
-      </c>
-      <c r="E6" s="3">
-        <v>3.8372746955692749</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2.7208454864186429</v>
+      <c r="B6" s="4">
+        <v>18.637208529696981</v>
+      </c>
+      <c r="C6" s="4">
+        <v>44.692308657422807</v>
+      </c>
+      <c r="D6" s="4">
+        <v>3.2537636885285082</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2.8822774492133809</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.6067243539544291</v>
       </c>
       <c r="G6">
-        <v>59.220894110823281</v>
+        <v>73.072282678816123</v>
       </c>
       <c r="H6">
         <v>0.25</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12</v>
-      </c>
-      <c r="K6" s="3">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="K6" s="4">
+        <v>0</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
@@ -690,22 +690,22 @@
         <v>9</v>
       </c>
       <c r="B7" s="4">
-        <v>34.944927174596181</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C7" s="4">
-        <v>10.1786298375561</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D7" s="4">
-        <v>4.2070670582499368</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E7" s="4">
-        <v>4.0029131533094624</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F7" s="4">
-        <v>2.7321521240141289</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G7">
-        <v>56.065689347725808</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H7">
         <v>0.25</v>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="K7" s="4">
         <v>0</v>
@@ -727,23 +727,23 @@
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="3">
-        <v>22.719310616151819</v>
-      </c>
-      <c r="C8" s="3">
-        <v>13.67657700288007</v>
-      </c>
-      <c r="D8" s="3">
-        <v>8.3103087435923833</v>
-      </c>
-      <c r="E8" s="3">
-        <v>3.7807781633755662</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2.8944369980397511</v>
+      <c r="B8" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C8" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D8" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F8" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G8">
-        <v>51.381411524039613</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H8">
         <v>0.25</v>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>14</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>0</v>
       </c>
       <c r="L8" t="s">
         <v>13</v>
@@ -766,22 +766,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="4">
-        <v>13.38231794958206</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C9" s="4">
-        <v>16.64554476062294</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D9" s="4">
-        <v>2.7370109295171261</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E9" s="4">
-        <v>2.8073593293665269</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F9" s="4">
-        <v>3.571682417735345</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G9">
-        <v>39.143915386824013</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H9">
         <v>0.25</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="K9" s="4">
         <v>0</v>
@@ -803,23 +803,23 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3">
-        <v>45.262201897401582</v>
-      </c>
-      <c r="C10" s="3">
-        <v>12.719363064744689</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3.8068218008273398</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3.8361615727234248</v>
-      </c>
-      <c r="F10" s="3">
-        <v>3.5772690079155991</v>
+      <c r="B10" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C10" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D10" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G10">
-        <v>69.201817343612632</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H10">
         <v>0.25</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8</v>
-      </c>
-      <c r="K10" s="3">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="K10" s="4">
+        <v>0</v>
       </c>
       <c r="L10" t="s">
         <v>13</v>
@@ -845,22 +845,22 @@
         <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>18.637208529696981</v>
+        <v>17.798554303205389</v>
       </c>
       <c r="C11" s="4">
-        <v>44.692308657422807</v>
+        <v>62.434066566829792</v>
       </c>
       <c r="D11" s="4">
-        <v>3.2537636885285082</v>
+        <v>12.58775981937834</v>
       </c>
       <c r="E11" s="4">
-        <v>2.8822774492133809</v>
+        <v>4.1202153391547798</v>
       </c>
       <c r="F11" s="4">
-        <v>3.6067243539544291</v>
+        <v>5.3621852322222141</v>
       </c>
       <c r="G11">
-        <v>73.072282678816123</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H11">
         <v>0.25</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K11" s="4">
         <v>0</v>
@@ -882,23 +882,23 @@
       <c r="A12" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
-        <v>53.967530449314587</v>
-      </c>
-      <c r="C12" s="3">
-        <v>21.066605325741129</v>
-      </c>
-      <c r="D12" s="3">
-        <v>6.7582631037269163</v>
-      </c>
-      <c r="E12" s="3">
-        <v>6.6796427354638457</v>
-      </c>
-      <c r="F12" s="3">
-        <v>4.5603838356990254</v>
+      <c r="B12" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C12" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D12" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E12" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G12">
-        <v>93.032425449945492</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H12">
         <v>0.25</v>
@@ -907,10 +907,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="K12" s="4">
+        <v>0</v>
       </c>
       <c r="L12" t="s">
         <v>13</v>
@@ -920,23 +920,23 @@
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="3">
-        <v>9845.1008094026984</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1000.830896013247</v>
-      </c>
-      <c r="D13" s="3">
-        <v>72.705852191902864</v>
-      </c>
-      <c r="E13" s="3">
-        <v>10.778618151879339</v>
-      </c>
-      <c r="F13" s="3">
-        <v>4.969545239577581</v>
+      <c r="B13" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C13" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D13" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E13" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F13" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G13">
-        <v>10934.3857209993</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H13">
         <v>0.25</v>
@@ -945,10 +945,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>17</v>
-      </c>
-      <c r="K13" s="3">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="K13" s="4">
+        <v>0</v>
       </c>
       <c r="L13" t="s">
         <v>13</v>
@@ -958,23 +958,23 @@
       <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="3">
-        <v>89.404935171893783</v>
-      </c>
-      <c r="C14" s="3">
-        <v>20.883798608676859</v>
-      </c>
-      <c r="D14" s="3">
-        <v>7.4974753732051704</v>
-      </c>
-      <c r="E14" s="3">
-        <v>5.296322397355274</v>
-      </c>
-      <c r="F14" s="3">
-        <v>5.2712080050949472</v>
+      <c r="B14" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C14" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E14" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G14">
-        <v>128.35373955622609</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H14">
         <v>0.25</v>
@@ -983,10 +983,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7</v>
-      </c>
-      <c r="K14" s="3">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="K14" s="4">
+        <v>0</v>
       </c>
       <c r="L14" t="s">
         <v>13</v>
@@ -996,23 +996,23 @@
       <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="3">
-        <v>35.06153391525033</v>
-      </c>
-      <c r="C15" s="3">
-        <v>12.2203299094082</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3.8195366885511701</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5.8402983581542554</v>
-      </c>
-      <c r="F15" s="3">
-        <v>5.2861774959392216</v>
+      <c r="B15" s="4">
+        <v>17.798554303205389</v>
+      </c>
+      <c r="C15" s="4">
+        <v>62.434066566829792</v>
+      </c>
+      <c r="D15" s="4">
+        <v>12.58775981937834</v>
+      </c>
+      <c r="E15" s="4">
+        <v>4.1202153391547798</v>
+      </c>
+      <c r="F15" s="4">
+        <v>5.3621852322222141</v>
       </c>
       <c r="G15">
-        <v>62.227876367303168</v>
+        <v>102.3027812607905</v>
       </c>
       <c r="H15">
         <v>0.25</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>16</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="K15" s="4">
+        <v>0</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
@@ -1035,22 +1035,22 @@
         <v>9</v>
       </c>
       <c r="B16" s="4">
-        <v>17.798554303205389</v>
+        <v>38.848755873064889</v>
       </c>
       <c r="C16" s="4">
-        <v>62.434066566829792</v>
+        <v>53.874551705035898</v>
       </c>
       <c r="D16" s="4">
-        <v>12.58775981937834</v>
+        <v>6.4856480101102942</v>
       </c>
       <c r="E16" s="4">
-        <v>4.1202153391547798</v>
+        <v>8.1497381567763032</v>
       </c>
       <c r="F16" s="4">
-        <v>5.3621852322222141</v>
+        <v>5.9574505178538004</v>
       </c>
       <c r="G16">
-        <v>102.3027812607905</v>
+        <v>113.31614426284121</v>
       </c>
       <c r="H16">
         <v>0.25</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K16" s="4">
         <v>0</v>
@@ -1073,22 +1073,22 @@
         <v>9</v>
       </c>
       <c r="B17" s="4">
-        <v>17.798554303205389</v>
+        <v>31.61530110705753</v>
       </c>
       <c r="C17" s="4">
-        <v>62.434066566829792</v>
+        <v>122.54762691413239</v>
       </c>
       <c r="D17" s="4">
-        <v>12.58775981937834</v>
+        <v>11.453311051710619</v>
       </c>
       <c r="E17" s="4">
-        <v>4.1202153391547798</v>
+        <v>9.1335847404779908</v>
       </c>
       <c r="F17" s="4">
-        <v>5.3621852322222141</v>
+        <v>6.2021944658223003</v>
       </c>
       <c r="G17">
-        <v>102.3027812607905</v>
+        <v>180.95201827920079</v>
       </c>
       <c r="H17">
         <v>0.25</v>
@@ -1097,7 +1097,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="K17" s="4">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>9</v>
       </c>
       <c r="B18" s="4">
-        <v>17.798554303205389</v>
+        <v>34.673504933696478</v>
       </c>
       <c r="C18" s="4">
-        <v>62.434066566829792</v>
+        <v>18.689987167639021</v>
       </c>
       <c r="D18" s="4">
-        <v>12.58775981937834</v>
+        <v>20.224231292070609</v>
       </c>
       <c r="E18" s="4">
-        <v>4.1202153391547798</v>
+        <v>6.4020640700288611</v>
       </c>
       <c r="F18" s="4">
-        <v>5.3621852322222141</v>
+        <v>6.5038148427410372</v>
       </c>
       <c r="G18">
-        <v>102.3027812607905</v>
+        <v>86.493602306176015</v>
       </c>
       <c r="H18">
         <v>0.25</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="K18" s="4">
         <v>0</v>
@@ -1149,22 +1149,22 @@
         <v>9</v>
       </c>
       <c r="B19" s="4">
-        <v>17.798554303205389</v>
+        <v>14.547059630221939</v>
       </c>
       <c r="C19" s="4">
-        <v>62.434066566829792</v>
+        <v>28.91254291046053</v>
       </c>
       <c r="D19" s="4">
-        <v>12.58775981937834</v>
+        <v>14.948959102598501</v>
       </c>
       <c r="E19" s="4">
-        <v>4.1202153391547798</v>
+        <v>4.8710865557423153</v>
       </c>
       <c r="F19" s="4">
-        <v>5.3621852322222141</v>
+        <v>6.9550567429093739</v>
       </c>
       <c r="G19">
-        <v>102.3027812607905</v>
+        <v>70.234704941932677</v>
       </c>
       <c r="H19">
         <v>0.25</v>
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K19" s="4">
         <v>0</v>
@@ -1187,22 +1187,22 @@
         <v>9</v>
       </c>
       <c r="B20" s="4">
-        <v>17.798554303205389</v>
+        <v>31.83426652133004</v>
       </c>
       <c r="C20" s="4">
-        <v>62.434066566829792</v>
+        <v>31.83749301353302</v>
       </c>
       <c r="D20" s="4">
-        <v>12.58775981937834</v>
+        <v>19.982059509797821</v>
       </c>
       <c r="E20" s="4">
-        <v>4.1202153391547798</v>
+        <v>14.587020413295971</v>
       </c>
       <c r="F20" s="4">
-        <v>5.3621852322222141</v>
+        <v>19.338305882454652</v>
       </c>
       <c r="G20">
-        <v>102.3027812607905</v>
+        <v>117.5791453404115</v>
       </c>
       <c r="H20">
         <v>0.25</v>
@@ -1211,7 +1211,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="K20" s="4">
         <v>0</v>
@@ -1225,22 +1225,22 @@
         <v>9</v>
       </c>
       <c r="B21" s="4">
-        <v>17.798554303205389</v>
+        <v>1785.1629199406241</v>
       </c>
       <c r="C21" s="4">
-        <v>62.434066566829792</v>
+        <v>261.8097303137443</v>
       </c>
       <c r="D21" s="4">
-        <v>12.58775981937834</v>
+        <v>41.962544585891862</v>
       </c>
       <c r="E21" s="4">
-        <v>4.1202153391547798</v>
+        <v>10.33254247320099</v>
       </c>
       <c r="F21" s="4">
-        <v>5.3621852322222141</v>
+        <v>35.022649217433923</v>
       </c>
       <c r="G21">
-        <v>102.3027812607905</v>
+        <v>2134.2903865308949</v>
       </c>
       <c r="H21">
         <v>0.25</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="K21" s="4">
         <v>0</v>
@@ -1263,22 +1263,22 @@
         <v>9</v>
       </c>
       <c r="B22" s="4">
-        <v>17.798554303205389</v>
+        <v>1023.564935792255</v>
       </c>
       <c r="C22" s="4">
-        <v>62.434066566829792</v>
+        <v>176.36715818271571</v>
       </c>
       <c r="D22" s="4">
-        <v>12.58775981937834</v>
+        <v>133.04864822838769</v>
       </c>
       <c r="E22" s="4">
-        <v>4.1202153391547798</v>
+        <v>139.9290483393635</v>
       </c>
       <c r="F22" s="4">
-        <v>5.3621852322222141</v>
+        <v>51.192314513606171</v>
       </c>
       <c r="G22">
-        <v>102.3027812607905</v>
+        <v>1524.1021050563279</v>
       </c>
       <c r="H22">
         <v>0.25</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K22" s="4">
         <v>0</v>
@@ -1301,22 +1301,22 @@
         <v>9</v>
       </c>
       <c r="B23" s="4">
-        <v>17.798554303205389</v>
+        <v>25.642612685185529</v>
       </c>
       <c r="C23" s="4">
-        <v>62.434066566829792</v>
+        <v>52.667625059451652</v>
       </c>
       <c r="D23" s="4">
-        <v>12.58775981937834</v>
+        <v>26.65598727327157</v>
       </c>
       <c r="E23" s="4">
-        <v>4.1202153391547798</v>
+        <v>35.677363001828567</v>
       </c>
       <c r="F23" s="4">
-        <v>5.3621852322222141</v>
+        <v>61.227644535106649</v>
       </c>
       <c r="G23">
-        <v>102.3027812607905</v>
+        <v>201.87123255484391</v>
       </c>
       <c r="H23">
         <v>0.25</v>
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="K23" s="4">
         <v>0</v>
@@ -1338,23 +1338,23 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="4">
-        <v>17.798554303205389</v>
-      </c>
-      <c r="C24" s="4">
-        <v>62.434066566829792</v>
-      </c>
-      <c r="D24" s="4">
-        <v>12.58775981937834</v>
-      </c>
-      <c r="E24" s="4">
-        <v>4.1202153391547798</v>
-      </c>
-      <c r="F24" s="4">
-        <v>5.3621852322222141</v>
+      <c r="B24" s="3">
+        <v>55.489790777488643</v>
+      </c>
+      <c r="C24" s="3">
+        <v>16.728498690068129</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.0641805843767624</v>
+      </c>
+      <c r="E24" s="3">
+        <v>3.8816091376464361</v>
+      </c>
+      <c r="F24" s="3">
+        <v>1.8180694170614959</v>
       </c>
       <c r="G24">
-        <v>102.3027812607905</v>
+        <v>82.982148606641474</v>
       </c>
       <c r="H24">
         <v>0.25</v>
@@ -1363,10 +1363,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>22</v>
-      </c>
-      <c r="K24" s="4">
-        <v>0</v>
+        <v>26</v>
+      </c>
+      <c r="K24" s="3">
+        <v>1</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -1377,22 +1377,22 @@
         <v>9</v>
       </c>
       <c r="B25" s="3">
-        <v>20.732283900144079</v>
+        <v>16.50146848544783</v>
       </c>
       <c r="C25" s="3">
-        <v>30.93123892916751</v>
+        <v>13.1768188898217</v>
       </c>
       <c r="D25" s="3">
-        <v>12.61129604720696</v>
+        <v>2.604673760370126</v>
       </c>
       <c r="E25" s="3">
-        <v>6.1737607016627649</v>
+        <v>2.557495449760204</v>
       </c>
       <c r="F25" s="3">
-        <v>5.6702361093773694</v>
+        <v>2.0794635607783492</v>
       </c>
       <c r="G25">
-        <v>76.11881568755868</v>
+        <v>36.919920146178207</v>
       </c>
       <c r="H25">
         <v>0.25</v>
@@ -1401,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="K25" s="3">
         <v>1</v>
@@ -1414,23 +1414,23 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="4">
-        <v>38.848755873064889</v>
-      </c>
-      <c r="C26" s="4">
-        <v>53.874551705035898</v>
-      </c>
-      <c r="D26" s="4">
-        <v>6.4856480101102942</v>
-      </c>
-      <c r="E26" s="4">
-        <v>8.1497381567763032</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5.9574505178538004</v>
+      <c r="B26" s="3">
+        <v>40.334039030001158</v>
+      </c>
+      <c r="C26" s="3">
+        <v>8.040774778641282</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.2879601201929072</v>
+      </c>
+      <c r="E26" s="3">
+        <v>3.8372746955692749</v>
+      </c>
+      <c r="F26" s="3">
+        <v>2.7208454864186429</v>
       </c>
       <c r="G26">
-        <v>113.31614426284121</v>
+        <v>59.220894110823281</v>
       </c>
       <c r="H26">
         <v>0.25</v>
@@ -1439,10 +1439,10 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>11</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="K26" s="3">
+        <v>1</v>
       </c>
       <c r="L26" t="s">
         <v>13</v>
@@ -1452,23 +1452,23 @@
       <c r="A27" t="s">
         <v>9</v>
       </c>
-      <c r="B27" s="4">
-        <v>31.61530110705753</v>
-      </c>
-      <c r="C27" s="4">
-        <v>122.54762691413239</v>
-      </c>
-      <c r="D27" s="4">
-        <v>11.453311051710619</v>
-      </c>
-      <c r="E27" s="4">
-        <v>9.1335847404779908</v>
-      </c>
-      <c r="F27" s="4">
-        <v>6.2021944658223003</v>
+      <c r="B27" s="3">
+        <v>22.719310616151819</v>
+      </c>
+      <c r="C27" s="3">
+        <v>13.67657700288007</v>
+      </c>
+      <c r="D27" s="3">
+        <v>8.3103087435923833</v>
+      </c>
+      <c r="E27" s="3">
+        <v>3.7807781633755662</v>
+      </c>
+      <c r="F27" s="3">
+        <v>2.8944369980397511</v>
       </c>
       <c r="G27">
-        <v>180.95201827920079</v>
+        <v>51.381411524039613</v>
       </c>
       <c r="H27">
         <v>0.25</v>
@@ -1477,10 +1477,10 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>10</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
+        <v>14</v>
+      </c>
+      <c r="K27" s="3">
+        <v>1</v>
       </c>
       <c r="L27" t="s">
         <v>13</v>
@@ -1490,23 +1490,23 @@
       <c r="A28" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="4">
-        <v>34.673504933696478</v>
-      </c>
-      <c r="C28" s="4">
-        <v>18.689987167639021</v>
-      </c>
-      <c r="D28" s="4">
-        <v>20.224231292070609</v>
-      </c>
-      <c r="E28" s="4">
-        <v>6.4020640700288611</v>
-      </c>
-      <c r="F28" s="4">
-        <v>6.5038148427410372</v>
+      <c r="B28" s="3">
+        <v>45.262201897401582</v>
+      </c>
+      <c r="C28" s="3">
+        <v>12.719363064744689</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3.8068218008273398</v>
+      </c>
+      <c r="E28" s="3">
+        <v>3.8361615727234248</v>
+      </c>
+      <c r="F28" s="3">
+        <v>3.5772690079155991</v>
       </c>
       <c r="G28">
-        <v>86.493602306176015</v>
+        <v>69.201817343612632</v>
       </c>
       <c r="H28">
         <v>0.25</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="J28">
-        <v>18</v>
-      </c>
-      <c r="K28" s="4">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="K28" s="3">
+        <v>1</v>
       </c>
       <c r="L28" t="s">
         <v>13</v>
@@ -1529,22 +1529,22 @@
         <v>9</v>
       </c>
       <c r="B29" s="3">
-        <v>26.481415580878529</v>
+        <v>53.967530449314587</v>
       </c>
       <c r="C29" s="3">
-        <v>9.9912097590094113</v>
+        <v>21.066605325741129</v>
       </c>
       <c r="D29" s="3">
-        <v>11.30678091404134</v>
+        <v>6.7582631037269163</v>
       </c>
       <c r="E29" s="3">
-        <v>15.49355513694309</v>
+        <v>6.6796427354638457</v>
       </c>
       <c r="F29" s="3">
-        <v>6.7021926160728222</v>
+        <v>4.5603838356990254</v>
       </c>
       <c r="G29">
-        <v>69.975154006945175</v>
+        <v>93.032425449945492</v>
       </c>
       <c r="H29">
         <v>0.25</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="J29">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>1</v>
@@ -1567,22 +1567,22 @@
         <v>9</v>
       </c>
       <c r="B30" s="3">
-        <v>75.872437436443533</v>
+        <v>9845.1008094026984</v>
       </c>
       <c r="C30" s="3">
-        <v>25.338921339397299</v>
+        <v>1000.830896013247</v>
       </c>
       <c r="D30" s="3">
-        <v>62.548023206335543</v>
+        <v>72.705852191902864</v>
       </c>
       <c r="E30" s="3">
-        <v>18.510127327135798</v>
+        <v>10.778618151879339</v>
       </c>
       <c r="F30" s="3">
-        <v>6.791947406579415</v>
+        <v>4.969545239577581</v>
       </c>
       <c r="G30">
-        <v>189.06145671589161</v>
+        <v>10934.3857209993</v>
       </c>
       <c r="H30">
         <v>0.25</v>
@@ -1591,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K30" s="3">
         <v>1</v>
@@ -1604,23 +1604,23 @@
       <c r="A31" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="4">
-        <v>14.547059630221939</v>
-      </c>
-      <c r="C31" s="4">
-        <v>28.91254291046053</v>
-      </c>
-      <c r="D31" s="4">
-        <v>14.948959102598501</v>
-      </c>
-      <c r="E31" s="4">
-        <v>4.8710865557423153</v>
-      </c>
-      <c r="F31" s="4">
-        <v>6.9550567429093739</v>
+      <c r="B31" s="3">
+        <v>89.404935171893783</v>
+      </c>
+      <c r="C31" s="3">
+        <v>20.883798608676859</v>
+      </c>
+      <c r="D31" s="3">
+        <v>7.4974753732051704</v>
+      </c>
+      <c r="E31" s="3">
+        <v>5.296322397355274</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5.2712080050949472</v>
       </c>
       <c r="G31">
-        <v>70.234704941932677</v>
+        <v>128.35373955622609</v>
       </c>
       <c r="H31">
         <v>0.25</v>
@@ -1629,10 +1629,10 @@
         <v>0</v>
       </c>
       <c r="J31">
-        <v>6</v>
-      </c>
-      <c r="K31" s="4">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="K31" s="3">
+        <v>1</v>
       </c>
       <c r="L31" t="s">
         <v>13</v>
@@ -1643,22 +1643,22 @@
         <v>9</v>
       </c>
       <c r="B32" s="3">
-        <v>28.386321439380179</v>
+        <v>35.06153391525033</v>
       </c>
       <c r="C32" s="3">
-        <v>11.55540323828507</v>
+        <v>12.2203299094082</v>
       </c>
       <c r="D32" s="3">
-        <v>6.6475410105570516</v>
+        <v>3.8195366885511701</v>
       </c>
       <c r="E32" s="3">
-        <v>8.3523138994634856</v>
+        <v>5.8402983581542554</v>
       </c>
       <c r="F32" s="3">
-        <v>7.5173434184479824</v>
+        <v>5.2861774959392216</v>
       </c>
       <c r="G32">
-        <v>62.458923006133787</v>
+        <v>62.227876367303168</v>
       </c>
       <c r="H32">
         <v>0.25</v>
@@ -1667,7 +1667,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="K32" s="3">
         <v>1</v>
@@ -1681,22 +1681,22 @@
         <v>9</v>
       </c>
       <c r="B33" s="3">
-        <v>16.717529527682821</v>
+        <v>20.732283900144079</v>
       </c>
       <c r="C33" s="3">
-        <v>8.1709756681275376</v>
+        <v>30.93123892916751</v>
       </c>
       <c r="D33" s="3">
-        <v>8.5727810700179425</v>
+        <v>12.61129604720696</v>
       </c>
       <c r="E33" s="3">
-        <v>7.6241972538560479</v>
+        <v>6.1737607016627649</v>
       </c>
       <c r="F33" s="3">
-        <v>7.8628194299895888</v>
+        <v>5.6702361093773694</v>
       </c>
       <c r="G33">
-        <v>48.948302949673952</v>
+        <v>76.11881568755868</v>
       </c>
       <c r="H33">
         <v>0.25</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="K33" s="3">
         <v>1</v>
@@ -1719,22 +1719,22 @@
         <v>9</v>
       </c>
       <c r="B34" s="3">
-        <v>16.23851386986366</v>
+        <v>26.481415580878529</v>
       </c>
       <c r="C34" s="3">
-        <v>10.557598727034019</v>
+        <v>9.9912097590094113</v>
       </c>
       <c r="D34" s="3">
-        <v>5.8790701919922634</v>
+        <v>11.30678091404134</v>
       </c>
       <c r="E34" s="3">
-        <v>7.7086934326609491</v>
+        <v>15.49355513694309</v>
       </c>
       <c r="F34" s="3">
-        <v>8.3357305681055056</v>
+        <v>6.7021926160728222</v>
       </c>
       <c r="G34">
-        <v>48.71960678965641</v>
+        <v>69.975154006945175</v>
       </c>
       <c r="H34">
         <v>0.25</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K34" s="3">
         <v>1</v>
@@ -1757,22 +1757,22 @@
         <v>9</v>
       </c>
       <c r="B35" s="3">
-        <v>1661.587540421041</v>
+        <v>75.872437436443533</v>
       </c>
       <c r="C35" s="3">
-        <v>257.61843865082369</v>
+        <v>25.338921339397299</v>
       </c>
       <c r="D35" s="3">
-        <v>63.784349383303841</v>
+        <v>62.548023206335543</v>
       </c>
       <c r="E35" s="3">
-        <v>28.329033021626621</v>
+        <v>18.510127327135798</v>
       </c>
       <c r="F35" s="3">
-        <v>10.2915984876498</v>
+        <v>6.791947406579415</v>
       </c>
       <c r="G35">
-        <v>2021.6109599644451</v>
+        <v>189.06145671589161</v>
       </c>
       <c r="H35">
         <v>0.25</v>
@@ -1781,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="K35" s="3">
         <v>1</v>
@@ -1795,22 +1795,22 @@
         <v>9</v>
       </c>
       <c r="B36" s="3">
-        <v>36.382152279478518</v>
+        <v>28.386321439380179</v>
       </c>
       <c r="C36" s="3">
-        <v>18.03997685151192</v>
+        <v>11.55540323828507</v>
       </c>
       <c r="D36" s="3">
-        <v>22.660792073851059</v>
+        <v>6.6475410105570516</v>
       </c>
       <c r="E36" s="3">
-        <v>13.46818433218205</v>
+        <v>8.3523138994634856</v>
       </c>
       <c r="F36" s="3">
-        <v>11.23415847118874</v>
+        <v>7.5173434184479824</v>
       </c>
       <c r="G36">
-        <v>101.78526400821229</v>
+        <v>62.458923006133787</v>
       </c>
       <c r="H36">
         <v>0.25</v>
@@ -1819,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="K36" s="3">
         <v>1</v>
@@ -1833,22 +1833,22 @@
         <v>9</v>
       </c>
       <c r="B37" s="3">
-        <v>147.3766595958981</v>
+        <v>16.717529527682821</v>
       </c>
       <c r="C37" s="3">
-        <v>32.753974166642848</v>
+        <v>8.1709756681275376</v>
       </c>
       <c r="D37" s="3">
-        <v>7.2478242535118813</v>
+        <v>8.5727810700179425</v>
       </c>
       <c r="E37" s="3">
-        <v>12.50332922309099</v>
+        <v>7.6241972538560479</v>
       </c>
       <c r="F37" s="3">
-        <v>11.65585630324493</v>
+        <v>7.8628194299895888</v>
       </c>
       <c r="G37">
-        <v>211.53764354238879</v>
+        <v>48.948302949673952</v>
       </c>
       <c r="H37">
         <v>0.25</v>
@@ -1857,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="K37" s="3">
         <v>1</v>
@@ -1871,22 +1871,22 @@
         <v>9</v>
       </c>
       <c r="B38" s="3">
-        <v>769.43608477581495</v>
+        <v>16.23851386986366</v>
       </c>
       <c r="C38" s="3">
-        <v>153.6363541207466</v>
+        <v>10.557598727034019</v>
       </c>
       <c r="D38" s="3">
-        <v>56.586371540154893</v>
+        <v>5.8790701919922634</v>
       </c>
       <c r="E38" s="3">
-        <v>23.20610041175917</v>
+        <v>7.7086934326609491</v>
       </c>
       <c r="F38" s="3">
-        <v>13.95675313255088</v>
+        <v>8.3357305681055056</v>
       </c>
       <c r="G38">
-        <v>1016.821663981027</v>
+        <v>48.71960678965641</v>
       </c>
       <c r="H38">
         <v>0.25</v>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K38" s="3">
         <v>1</v>
@@ -1909,22 +1909,22 @@
         <v>9</v>
       </c>
       <c r="B39" s="3">
-        <v>62.039182426180957</v>
+        <v>1661.587540421041</v>
       </c>
       <c r="C39" s="3">
-        <v>19.667940116982749</v>
+        <v>257.61843865082369</v>
       </c>
       <c r="D39" s="3">
-        <v>15.035601615444349</v>
+        <v>63.784349383303841</v>
       </c>
       <c r="E39" s="3">
-        <v>14.87348969370538</v>
+        <v>28.329033021626621</v>
       </c>
       <c r="F39" s="3">
-        <v>17.424722169198262</v>
+        <v>10.2915984876498</v>
       </c>
       <c r="G39">
-        <v>129.0409360215117</v>
+        <v>2021.6109599644451</v>
       </c>
       <c r="H39">
         <v>0.25</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="K39" s="3">
         <v>1</v>
@@ -1946,23 +1946,23 @@
       <c r="A40" t="s">
         <v>9</v>
       </c>
-      <c r="B40" s="4">
-        <v>31.83426652133004</v>
-      </c>
-      <c r="C40" s="4">
-        <v>31.83749301353302</v>
-      </c>
-      <c r="D40" s="4">
-        <v>19.982059509797821</v>
-      </c>
-      <c r="E40" s="4">
-        <v>14.587020413295971</v>
-      </c>
-      <c r="F40" s="4">
-        <v>19.338305882454652</v>
+      <c r="B40" s="3">
+        <v>36.382152279478518</v>
+      </c>
+      <c r="C40" s="3">
+        <v>18.03997685151192</v>
+      </c>
+      <c r="D40" s="3">
+        <v>22.660792073851059</v>
+      </c>
+      <c r="E40" s="3">
+        <v>13.46818433218205</v>
+      </c>
+      <c r="F40" s="3">
+        <v>11.23415847118874</v>
       </c>
       <c r="G40">
-        <v>117.5791453404115</v>
+        <v>101.78526400821229</v>
       </c>
       <c r="H40">
         <v>0.25</v>
@@ -1971,10 +1971,10 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>19</v>
-      </c>
-      <c r="K40" s="4">
-        <v>0</v>
+        <v>24</v>
+      </c>
+      <c r="K40" s="3">
+        <v>1</v>
       </c>
       <c r="L40" t="s">
         <v>13</v>
@@ -1985,22 +1985,22 @@
         <v>9</v>
       </c>
       <c r="B41" s="3">
-        <v>292.54890479927059</v>
+        <v>147.3766595958981</v>
       </c>
       <c r="C41" s="3">
-        <v>103.70927480601</v>
+        <v>32.753974166642848</v>
       </c>
       <c r="D41" s="3">
-        <v>20.497284572088549</v>
+        <v>7.2478242535118813</v>
       </c>
       <c r="E41" s="3">
-        <v>17.853182959421719</v>
+        <v>12.50332922309099</v>
       </c>
       <c r="F41" s="3">
-        <v>28.7040630322795</v>
+        <v>11.65585630324493</v>
       </c>
       <c r="G41">
-        <v>463.31271016907027</v>
+        <v>211.53764354238879</v>
       </c>
       <c r="H41">
         <v>0.25</v>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K41" s="3">
         <v>1</v>
@@ -2023,22 +2023,22 @@
         <v>9</v>
       </c>
       <c r="B42" s="3">
-        <v>35.684823196883059</v>
+        <v>769.43608477581495</v>
       </c>
       <c r="C42" s="3">
-        <v>18.99350963669372</v>
+        <v>153.6363541207466</v>
       </c>
       <c r="D42" s="3">
-        <v>19.952993280119891</v>
+        <v>56.586371540154893</v>
       </c>
       <c r="E42" s="3">
-        <v>31.05295435773742</v>
+        <v>23.20610041175917</v>
       </c>
       <c r="F42" s="3">
-        <v>33.299682294052261</v>
+        <v>13.95675313255088</v>
       </c>
       <c r="G42">
-        <v>138.98396276548641</v>
+        <v>1016.821663981027</v>
       </c>
       <c r="H42">
         <v>0.25</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="K42" s="3">
         <v>1</v>
@@ -2060,23 +2060,23 @@
       <c r="A43" t="s">
         <v>9</v>
       </c>
-      <c r="B43" s="4">
-        <v>1785.1629199406241</v>
-      </c>
-      <c r="C43" s="4">
-        <v>261.8097303137443</v>
-      </c>
-      <c r="D43" s="4">
-        <v>41.962544585891862</v>
-      </c>
-      <c r="E43" s="4">
-        <v>10.33254247320099</v>
-      </c>
-      <c r="F43" s="4">
-        <v>35.022649217433923</v>
+      <c r="B43" s="3">
+        <v>62.039182426180957</v>
+      </c>
+      <c r="C43" s="3">
+        <v>19.667940116982749</v>
+      </c>
+      <c r="D43" s="3">
+        <v>15.035601615444349</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14.87348969370538</v>
+      </c>
+      <c r="F43" s="3">
+        <v>17.424722169198262</v>
       </c>
       <c r="G43">
-        <v>2134.2903865308949</v>
+        <v>129.0409360215117</v>
       </c>
       <c r="H43">
         <v>0.25</v>
@@ -2085,10 +2085,10 @@
         <v>0</v>
       </c>
       <c r="J43">
-        <v>24</v>
-      </c>
-      <c r="K43" s="4">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
+        <v>1</v>
       </c>
       <c r="L43" t="s">
         <v>13</v>
@@ -2098,23 +2098,23 @@
       <c r="A44" t="s">
         <v>9</v>
       </c>
-      <c r="B44" s="4">
-        <v>1023.564935792255</v>
-      </c>
-      <c r="C44" s="4">
-        <v>176.36715818271571</v>
-      </c>
-      <c r="D44" s="4">
-        <v>133.04864822838769</v>
-      </c>
-      <c r="E44" s="4">
-        <v>139.9290483393635</v>
-      </c>
-      <c r="F44" s="4">
-        <v>51.192314513606171</v>
+      <c r="B44" s="3">
+        <v>292.54890479927059</v>
+      </c>
+      <c r="C44" s="3">
+        <v>103.70927480601</v>
+      </c>
+      <c r="D44" s="3">
+        <v>20.497284572088549</v>
+      </c>
+      <c r="E44" s="3">
+        <v>17.853182959421719</v>
+      </c>
+      <c r="F44" s="3">
+        <v>28.7040630322795</v>
       </c>
       <c r="G44">
-        <v>1524.1021050563279</v>
+        <v>463.31271016907027</v>
       </c>
       <c r="H44">
         <v>0.25</v>
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>15</v>
-      </c>
-      <c r="K44" s="4">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="K44" s="3">
+        <v>1</v>
       </c>
       <c r="L44" t="s">
         <v>13</v>
@@ -2137,22 +2137,22 @@
         <v>9</v>
       </c>
       <c r="B45" s="3">
-        <v>85.202990072200322</v>
+        <v>35.684823196883059</v>
       </c>
       <c r="C45" s="3">
-        <v>33.771929002371827</v>
+        <v>18.99350963669372</v>
       </c>
       <c r="D45" s="3">
-        <v>13.516622362365281</v>
+        <v>19.952993280119891</v>
       </c>
       <c r="E45" s="3">
-        <v>32.031563012184051</v>
+        <v>31.05295435773742</v>
       </c>
       <c r="F45" s="3">
-        <v>57.071056891900952</v>
+        <v>33.299682294052261</v>
       </c>
       <c r="G45">
-        <v>221.59416134102241</v>
+        <v>138.98396276548641</v>
       </c>
       <c r="H45">
         <v>0.25</v>
@@ -2161,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="K45" s="3">
         <v>1</v>
@@ -2174,23 +2174,23 @@
       <c r="A46" t="s">
         <v>9</v>
       </c>
-      <c r="B46" s="4">
-        <v>25.642612685185529</v>
-      </c>
-      <c r="C46" s="4">
-        <v>52.667625059451652</v>
-      </c>
-      <c r="D46" s="4">
-        <v>26.65598727327157</v>
-      </c>
-      <c r="E46" s="4">
-        <v>35.677363001828567</v>
-      </c>
-      <c r="F46" s="4">
-        <v>61.227644535106649</v>
+      <c r="B46" s="3">
+        <v>85.202990072200322</v>
+      </c>
+      <c r="C46" s="3">
+        <v>33.771929002371827</v>
+      </c>
+      <c r="D46" s="3">
+        <v>13.516622362365281</v>
+      </c>
+      <c r="E46" s="3">
+        <v>32.031563012184051</v>
+      </c>
+      <c r="F46" s="3">
+        <v>57.071056891900952</v>
       </c>
       <c r="G46">
-        <v>201.87123255484391</v>
+        <v>221.59416134102241</v>
       </c>
       <c r="H46">
         <v>0.25</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="J46">
-        <v>23</v>
-      </c>
-      <c r="K46" s="4">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1</v>
       </c>
       <c r="L46" t="s">
         <v>13</v>
@@ -2361,8 +2361,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K54">
-    <sortCondition ref="F2:F54"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L50">
+    <sortCondition ref="K2:K50"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
